--- a/Assets/Resources/Data/Looting.xlsx
+++ b/Assets/Resources/Data/Looting.xlsx
@@ -1,22 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KSMPC\Project_G\Assets\Resources\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E729625-017A-4459-94AD-B834308CCE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="30195" windowHeight="14370"/>
+    <workbookView xWindow="8670" yWindow="4710" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cof</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -51,13 +66,21 @@
   </si>
   <si>
     <t>coin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ironIngot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -97,11 +120,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -118,20 +138,23 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F5" totalsRowShown="0">
-  <autoFilter ref="A1:F5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="표1" displayName="표1" ref="A1:F5" totalsRowShown="0">
+  <autoFilter ref="A1:F5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="id"/>
-    <tableColumn id="2" name="name"/>
-    <tableColumn id="3" name="cof"/>
-    <tableColumn id="4" name="bounceCount"/>
-    <tableColumn id="5" name="threshold"/>
-    <tableColumn id="6" name="Sn" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="cof"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="bounceCount"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="threshold"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Sn" dataDxfId="0">
       <calculatedColumnFormula>(1-표1[[#This Row],[cof]]^표1[[#This Row],[bounceCount]])/(1-표1[[#This Row],[cof]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -182,7 +205,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -215,9 +238,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -250,6 +290,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -425,11 +482,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -442,16 +499,16 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -459,7 +516,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>0.6</v>
@@ -468,7 +525,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2">
         <f>(1-표1[[#This Row],[cof]]^표1[[#This Row],[bounceCount]])/(1-표1[[#This Row],[cof]])</f>
@@ -480,7 +537,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>0.6</v>
@@ -489,7 +546,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <f>(1-표1[[#This Row],[cof]]^표1[[#This Row],[bounceCount]])/(1-표1[[#This Row],[cof]])</f>
@@ -500,6 +557,9 @@
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
       <c r="C4">
         <v>0.6</v>
       </c>
@@ -507,7 +567,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4">
         <f>(1-표1[[#This Row],[cof]]^표1[[#This Row],[bounceCount]])/(1-표1[[#This Row],[cof]])</f>
@@ -525,24 +585,12 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <f>(1-표1[[#This Row],[cof]]^표1[[#This Row],[bounceCount]])/(1-표1[[#This Row],[cof]])</f>
         <v>2.3055999999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -554,7 +602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -567,7 +615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
